--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -3,10 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Main Menu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Add User" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Leave" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Recruitment" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="My Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Pie Chart" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -21,18 +27,10 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -182,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -523,144 +527,161 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,359 +1281,642 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="67.2222222222222" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col width="10" customWidth="1" style="5" min="1" max="1"/>
+    <col width="9.444444444444439" customWidth="1" style="5" min="2" max="2"/>
+    <col width="10" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.444444444444439" customWidth="1" style="5" min="4" max="4"/>
+    <col width="67.2222222222222" customWidth="1" style="5" min="5" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col width="88.7777777777778" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.7777777777778" customWidth="1" style="1" min="2" max="2"/>
-    <col width="131.888888888889" customWidth="1" style="1" min="3" max="3"/>
-    <col width="47.8888888888889" customWidth="1" style="1" min="4" max="4"/>
+    <col width="18.7777777777778" customWidth="1" style="5" min="1" max="1"/>
+    <col width="12.6666666666667" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Topic</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Source</t>
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>menu_admin</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>menu_pim</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>PIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>menu_leave</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>menu_time</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>menu_recruitment</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>menu_my_nfo</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>My Info</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>menu_performance</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>menu_dashboard</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>menu_directory</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Directory</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>menu_maintenance</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>menu_claim</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>Claim</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>menu_buzz</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Buzz</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col width="9.33333333333333" customWidth="1" style="5" min="1" max="1"/>
+    <col width="8.111111111111111" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.6666666666667" customWidth="1" style="5" min="3" max="3"/>
+    <col width="9.66666666666667" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12.7777777777778" customWidth="1" style="5" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>user_role</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee_name </t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>Bredlin</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>Password123</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
+    <col width="17.1111111111111" customWidth="1" style="2" min="2" max="3"/>
+    <col width="15.5555555555556" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.888888888888889" customWidth="1" style="2" min="5" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>leave_type</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>from_date</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>to_date</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>CAN - FMLA</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>4 September 2024</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>4 September 2024</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>not feeling good</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col width="11.5555555555556" customWidth="1" style="5" min="1" max="1"/>
+    <col width="22.7777777777778" customWidth="1" style="5" min="2" max="2"/>
+    <col width="21.2222222222222" customWidth="1" style="5" min="3" max="3"/>
+    <col width="11.7777777777778" customWidth="1" style="5" min="4" max="4"/>
+    <col width="7.88888888888889" customWidth="1" style="5" min="5" max="5"/>
+    <col width="8.77777777777778" customWidth="1" style="5" min="6" max="6"/>
+    <col width="37.2222222222222" customWidth="1" style="5" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>vacancy</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>file_path</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Bredlin Jose</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Junior Account Assistant</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>bredlin@example.com</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>9876543210</v>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>no notes</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>test_data\\sample_file\\pdf-sample.pdf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
+    <col width="12.4444444444444" customWidth="1" style="2" min="2" max="2"/>
+    <col width="8.555555555555561" customWidth="1" style="2" min="3" max="3"/>
+    <col width="15.1111111111111" customWidth="1" style="2" min="4" max="4"/>
+    <col width="17.7777777777778" customWidth="1" style="2" min="5" max="5"/>
+    <col width="10.4444444444444" customWidth="1" style="2" min="6" max="6"/>
+    <col width="13.7777777777778" customWidth="1" style="2" min="7" max="7"/>
+    <col width="16.4444444444444" customWidth="1" style="2" min="8" max="8"/>
+    <col width="7.22222222222222" customWidth="1" style="2" min="9" max="9"/>
+    <col width="8.888888888888889" customWidth="1" style="2" min="10" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>other_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>licence_number</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>marital_status</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>date_of_birth</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Bredlin Jose</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>999</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>5678</v>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>22 December 2022</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>22 February 1997</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col width="20.1111111111111" customWidth="1" style="5" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Chart Data</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>double decker flyover in bengaluru</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>22 Jul 2024</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>The double-decker flyover features two separate carriageways, each with two lanes. It passes by three metro stations: Jayadeva Hospital,...</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>The Hindu, NDTV, Times of India, Hindustan Times</t>
+          <t>Unassigned
+4
+(80.00%)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>tungabhadra dam crash</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
+          <t>Unassigned
+10
+(90.91%)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>tungabhadra dam crash</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>The Hans India, Outlook India, Deccan Herald</t>
+          <t>Unassigned
+31
+(96.88%)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>double decker flyover in bengaluru</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>22 Jul 2024</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>The double-decker flyover features two separate carriageways, each with two lanes. It passes by three metro stations: Jayadeva Hospital,...</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Times of India, The Hindu, Hindustan Times, NDTV</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam crash</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Deccan Herald, Outlook India, The Hans India</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam gate crash</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Outlook India, The Hans India, Deccan Herald</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>karnataka dam water level</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>18 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>Karnataka news, Karnataka dam news: More than 36 tmcft of water was lost due to continuous and unregulated outflow after the crest gate...</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam gate crash</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>The Hans India, Deccan Herald, Outlook India</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam gate crash</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>The Hans India, Deccan Herald, Outlook India</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam crash</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>The Hans India, Outlook India, Deccan Herald</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam gate crash</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>15 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Outlook India, The Hans India, Deccan Herald</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam gate crash</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>18 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Outlook India, Deccan Herald, The Hans India</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>double decker flyover in bengaluru</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>26 Jul 2024</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>The double-decker flyover features two separate carriageways, each with two lanes. It passes by three metro stations: Jayadeva Hospital,...</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>The Hindu, NDTV, Hindustan Times, Times of India</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>tungabhadra dam crash</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>18 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Outlook India, The Hans India, Deccan Herald</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Tungabhadra Dam crash</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>18 Aug 2024</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>Several attempts to fix the breach in crest gate number 19 of Tungabhadra dam failed to yield the desired results on Thursday. ADVERTISEMENT.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>The Hans India, Deccan Herald, Outlook India</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Unassigned
+36
+(97.30%)</t>
         </is>
       </c>
     </row>

--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1,188 +1,461 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Main Menu" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Add User" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Leave" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Recruitment" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="My Info" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Pie Chart" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Menu" sheetId="2" r:id="rId2"/>
+    <sheet name="Add User" sheetId="3" r:id="rId3"/>
+    <sheet name="Leave" sheetId="4" r:id="rId4"/>
+    <sheet name="Recruitment" sheetId="5" r:id="rId5"/>
+    <sheet name="My Info" sheetId="6" r:id="rId6"/>
+    <sheet name="Pie Chart" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>menu_admin</t>
+  </si>
+  <si>
+    <t>menu_pim</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>menu_leave</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>menu_time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>menu_recruitment</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>menu_my_nfo</t>
+  </si>
+  <si>
+    <t>My Info</t>
+  </si>
+  <si>
+    <t>menu_performance</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>menu_dashboard</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>menu_directory</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>menu_maintenance</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>menu_claim</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>menu_buzz</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
+  <si>
+    <t>user_role</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee_name </t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Bredlin</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>leave_type</t>
+  </si>
+  <si>
+    <t>from_date</t>
+  </si>
+  <si>
+    <t>to_date</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>CAN - FMLA</t>
+  </si>
+  <si>
+    <t>4 September 2024</t>
+  </si>
+  <si>
+    <t>5 September 2024</t>
+  </si>
+  <si>
+    <t>not feeling good</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>Bredlin Jose</t>
+  </si>
+  <si>
+    <t>Junior Account Assistant</t>
+  </si>
+  <si>
+    <t>bredlin@example.com</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>no notes</t>
+  </si>
+  <si>
+    <t>test_data\\sample_file\\pdf-sample.pdf</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>other_id</t>
+  </si>
+  <si>
+    <t>licence_number</t>
+  </si>
+  <si>
+    <t>expiry_date</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>22 December 2022</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>22 February 1997</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Chart Data</t>
+  </si>
+  <si>
+    <t>Unassigned
+4
+(80.00%)</t>
+  </si>
+  <si>
+    <t>Unassigned
+10
+(90.91%)</t>
+  </si>
+  <si>
+    <t>Unassigned
+31
+(96.88%)</t>
+  </si>
+  <si>
+    <t>Unassigned
+36
+(97.30%)</t>
+  </si>
+  <si>
+    <t>Unassigned
+138
+(95.83%)</t>
+  </si>
+  <si>
+    <t>Unassigned
+5
+(83.33%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -509,179 +782,182 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,7 +1203,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -936,7 +1212,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -949,74 +1225,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1276,651 +1489,503 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="67.2222222222222" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="67.2222222222222" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col width="10" customWidth="1" style="5" min="1" max="1"/>
-    <col width="9.444444444444439" customWidth="1" style="5" min="2" max="2"/>
-    <col width="10" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.444444444444439" customWidth="1" style="5" min="4" max="4"/>
-    <col width="67.2222222222222" customWidth="1" style="5" min="5" max="16384"/>
+    <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="67.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>admin123</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/" tooltip="https://opensource-demo.orangehrmlive.com/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col width="18.7777777777778" customWidth="1" style="5" min="1" max="1"/>
-    <col width="12.6666666666667" customWidth="1" style="5" min="2" max="2"/>
+    <col min="1" max="1" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>menu_admin</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>menu_pim</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>PIM</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>menu_leave</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>menu_time</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>menu_recruitment</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>Recruitment</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>menu_my_nfo</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>My Info</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>menu_performance</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>Performance</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>menu_dashboard</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Dashboard</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>menu_directory</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Directory</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>menu_maintenance</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>menu_claim</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>Claim</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>menu_buzz</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Buzz</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col width="9.33333333333333" customWidth="1" style="5" min="1" max="1"/>
-    <col width="8.111111111111111" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.6666666666667" customWidth="1" style="5" min="3" max="3"/>
-    <col width="9.66666666666667" customWidth="1" style="5" min="4" max="4"/>
-    <col width="12.7777777777778" customWidth="1" style="5" min="5" max="5"/>
+    <col min="1" max="1" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.11111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>user_role</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">employee_name </t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Bredlin</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>Password123</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
-    <col width="17.1111111111111" customWidth="1" style="2" min="2" max="3"/>
-    <col width="15.5555555555556" customWidth="1" style="2" min="4" max="4"/>
-    <col width="8.888888888888889" customWidth="1" style="2" min="5" max="16384"/>
+    <col min="1" max="1" width="11.5555555555556" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.1111111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.5555555555556" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88888888888889" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>leave_type</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>from_date</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>to_date</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>CAN - FMLA</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>4 September 2024</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>4 September 2024</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>not feeling good</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col width="11.5555555555556" customWidth="1" style="5" min="1" max="1"/>
-    <col width="22.7777777777778" customWidth="1" style="5" min="2" max="2"/>
-    <col width="21.2222222222222" customWidth="1" style="5" min="3" max="3"/>
-    <col width="11.7777777777778" customWidth="1" style="5" min="4" max="4"/>
-    <col width="7.88888888888889" customWidth="1" style="5" min="5" max="5"/>
-    <col width="8.77777777777778" customWidth="1" style="5" min="6" max="6"/>
-    <col width="37.2222222222222" customWidth="1" style="5" min="7" max="7"/>
+    <col min="1" max="1" width="11.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
-        <is>
-          <t>vacancy</t>
-        </is>
-      </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="inlineStr">
-        <is>
-          <t>file_path</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>Bredlin Jose</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Junior Account Assistant</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>bredlin@example.com</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>no notes</t>
-        </is>
-      </c>
-      <c r="G2" s="7" t="inlineStr">
-        <is>
-          <t>test_data\\sample_file\\pdf-sample.pdf</t>
-        </is>
+      <c r="E2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
-    <col width="12.4444444444444" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.555555555555561" customWidth="1" style="2" min="3" max="3"/>
-    <col width="15.1111111111111" customWidth="1" style="2" min="4" max="4"/>
-    <col width="17.7777777777778" customWidth="1" style="2" min="5" max="5"/>
-    <col width="10.4444444444444" customWidth="1" style="2" min="6" max="6"/>
-    <col width="13.7777777777778" customWidth="1" style="2" min="7" max="7"/>
-    <col width="16.4444444444444" customWidth="1" style="2" min="8" max="8"/>
-    <col width="7.22222222222222" customWidth="1" style="2" min="9" max="9"/>
-    <col width="8.888888888888889" customWidth="1" style="2" min="10" max="16384"/>
+    <col min="1" max="1" width="11.5555555555556" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4444444444444" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.4444444444444" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.7777777777778" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.4444444444444" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.22222222222222" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>employee_id</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>other_id</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>licence_number</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>expiry_date</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>marital_status</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>date_of_birth</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>Bredlin Jose</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5">
         <v>1001</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5">
         <v>999</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5">
         <v>5678</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>22 December 2022</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>Indian</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>Single</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>22 February 1997</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
-    <col width="20.1111111111111" customWidth="1" style="5" min="1" max="1"/>
+    <col min="1" max="1" width="20.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Chart Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Unassigned
-4
-(80.00%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Unassigned
-10
-(90.91%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Unassigned
-31
-(96.88%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Unassigned
-36
-(97.30%)</t>
-        </is>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1,461 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Main Menu" sheetId="2" r:id="rId2"/>
-    <sheet name="Add User" sheetId="3" r:id="rId3"/>
-    <sheet name="Leave" sheetId="4" r:id="rId4"/>
-    <sheet name="Recruitment" sheetId="5" r:id="rId5"/>
-    <sheet name="My Info" sheetId="6" r:id="rId6"/>
-    <sheet name="Pie Chart" sheetId="7" r:id="rId7"/>
+    <sheet name="Credentials" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Main Menu" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Add User" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Leave" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Recruitment" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="My Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Pie Chart" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>menu_admin</t>
-  </si>
-  <si>
-    <t>menu_pim</t>
-  </si>
-  <si>
-    <t>PIM</t>
-  </si>
-  <si>
-    <t>menu_leave</t>
-  </si>
-  <si>
-    <t>Leave</t>
-  </si>
-  <si>
-    <t>menu_time</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>menu_recruitment</t>
-  </si>
-  <si>
-    <t>Recruitment</t>
-  </si>
-  <si>
-    <t>menu_my_nfo</t>
-  </si>
-  <si>
-    <t>My Info</t>
-  </si>
-  <si>
-    <t>menu_performance</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>menu_dashboard</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>menu_directory</t>
-  </si>
-  <si>
-    <t>Directory</t>
-  </si>
-  <si>
-    <t>menu_maintenance</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>menu_claim</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>menu_buzz</t>
-  </si>
-  <si>
-    <t>Buzz</t>
-  </si>
-  <si>
-    <t>user_role</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employee_name </t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Bredlin</t>
-  </si>
-  <si>
-    <t>Password123</t>
-  </si>
-  <si>
-    <t>leave_type</t>
-  </si>
-  <si>
-    <t>from_date</t>
-  </si>
-  <si>
-    <t>to_date</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>CAN - FMLA</t>
-  </si>
-  <si>
-    <t>4 September 2024</t>
-  </si>
-  <si>
-    <t>5 September 2024</t>
-  </si>
-  <si>
-    <t>not feeling good</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>vacancy</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>file_path</t>
-  </si>
-  <si>
-    <t>Bredlin Jose</t>
-  </si>
-  <si>
-    <t>Junior Account Assistant</t>
-  </si>
-  <si>
-    <t>bredlin@example.com</t>
-  </si>
-  <si>
-    <t>no data</t>
-  </si>
-  <si>
-    <t>no notes</t>
-  </si>
-  <si>
-    <t>test_data\\sample_file\\pdf-sample.pdf</t>
-  </si>
-  <si>
-    <t>employee_id</t>
-  </si>
-  <si>
-    <t>other_id</t>
-  </si>
-  <si>
-    <t>licence_number</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>22 December 2022</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>22 February 1997</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Chart Data</t>
-  </si>
-  <si>
-    <t>Unassigned
-4
-(80.00%)</t>
-  </si>
-  <si>
-    <t>Unassigned
-10
-(90.91%)</t>
-  </si>
-  <si>
-    <t>Unassigned
-31
-(96.88%)</t>
-  </si>
-  <si>
-    <t>Unassigned
-36
-(97.30%)</t>
-  </si>
-  <si>
-    <t>Unassigned
-138
-(95.83%)</t>
-  </si>
-  <si>
-    <t>Unassigned
-5
-(83.33%)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -782,180 +509,180 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +930,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1212,7 +939,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1225,11 +952,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1489,503 +1279,730 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="67.2222222222222" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="67.2222222222222" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="67.2222222222222" style="1" customWidth="1"/>
+    <col width="11.8888888888889" customWidth="1" style="1" min="1" max="1"/>
+    <col width="43.6666666666667" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.444444444444439" customWidth="1" style="1" min="4" max="4"/>
+    <col width="10" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9.444444444444439" customWidth="1" style="1" min="6" max="6"/>
+    <col width="67.2222222222222" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr">
+        <is>
+          <t>Environment</t>
+        </is>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>https://opensource-demo.orangehrmlive.com/</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/" tooltip="https://opensource-demo.orangehrmlive.com/"/>
+    <hyperlink ref="B2" tooltip="https://opensource-demo.orangehrmlive.com/" display="https://opensource-demo.orangehrmlive.com/" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6666666666667" style="1" customWidth="1"/>
+    <col width="18.7777777777778" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.6666666666667" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>menu_admin</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>menu_pim</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>PIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>menu_leave</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>menu_time</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>menu_recruitment</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Recruitment</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>menu_my_nfo</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>My Info</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>menu_performance</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>menu_dashboard</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>menu_directory</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Directory</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>menu_maintenance</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>menu_claim</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>Claim</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>menu_buzz</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Buzz</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.33333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.11111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7777777777778" style="1" customWidth="1"/>
+    <col width="9.33333333333333" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.111111111111111" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.6666666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.66666666666667" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.7777777777778" customWidth="1" style="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>39</v>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>user_role</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>employee_name</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>Bredlin</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>Password123</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="2" max="3" width="17.1111111111111" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.5555555555556" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="3" customWidth="1"/>
+    <col width="11.5555555555556" customWidth="1" style="3" min="1" max="1"/>
+    <col width="17.1111111111111" customWidth="1" style="3" min="2" max="3"/>
+    <col width="15.5555555555556" customWidth="1" style="3" min="4" max="4"/>
+    <col width="8.888888888888889" customWidth="1" style="3" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>47</v>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>leave_type</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>from_date</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>to_date</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>CAN - FMLA</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>4 September 2024</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>5 September 2024</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>not feeling good</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77777777777778" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.2222222222222" style="1" customWidth="1"/>
+    <col width="11.5555555555556" customWidth="1" style="1" min="1" max="1"/>
+    <col width="22.7777777777778" customWidth="1" style="1" min="2" max="2"/>
+    <col width="21.2222222222222" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.7777777777778" customWidth="1" style="1" min="4" max="4"/>
+    <col width="7.88888888888889" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.77777777777778" customWidth="1" style="1" min="6" max="6"/>
+    <col width="37.2222222222222" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="7">
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>vacancy</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="F1" s="6" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="G1" s="6" t="inlineStr">
+        <is>
+          <t>file_path</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Bredlin Jose</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>bredlin@example.com</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="n">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>60</v>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>no data</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>no notes</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>test_data\\sample_file\\pdf-sample.pdf</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.4444444444444" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.55555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.4444444444444" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.7777777777778" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.4444444444444" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.22222222222222" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="3" customWidth="1"/>
+    <col width="11.5555555555556" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.4444444444444" customWidth="1" style="3" min="2" max="2"/>
+    <col width="8.555555555555561" customWidth="1" style="3" min="3" max="3"/>
+    <col width="15.1111111111111" customWidth="1" style="3" min="4" max="4"/>
+    <col width="17.7777777777778" customWidth="1" style="3" min="5" max="5"/>
+    <col width="10.4444444444444" customWidth="1" style="3" min="6" max="6"/>
+    <col width="13.7777777777778" customWidth="1" style="3" min="7" max="7"/>
+    <col width="16.4444444444444" customWidth="1" style="3" min="8" max="8"/>
+    <col width="7.22222222222222" customWidth="1" style="3" min="9" max="9"/>
+    <col width="8.888888888888889" customWidth="1" style="3" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>other_id</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>licence_number</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>marital_status</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>date_of_birth</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Bredlin Jose</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>1001</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="n">
         <v>999</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>5678</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>73</v>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>22 December 2022</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>Indian</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>22 February 1997</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.1111111111111" style="1" customWidth="1"/>
+    <col width="20.1111111111111" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>80</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Chart Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+4
+(80.00%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+10
+(90.91%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+31
+(96.88%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+36
+(97.30%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+138
+(95.83%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+4
+(80.00%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+5
+(83.33%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+131
+(95.62%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+5
+(83.33%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Unassigned
+9
+(90.00%)</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" state="visible" r:id="rId1"/>
@@ -1608,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>4 September 2024</t>
+          <t>23 October 2024</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>5 September 2024</t>
+          <t>24 October 2024</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
@@ -1677,8 +1677,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B2" s="7" t="inlineStr">
         <is>
-          <t>QA Engineer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="C2" s="7" t="inlineStr">
@@ -1894,7 +1894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1994,11 +1994,74 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>Unassigned
 9
 (90.00%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+70
+(92.11%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+91
+(93.81%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+131
+(95.62%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+153
+(96.23%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+157
+(96.32%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+164
+(96.47%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Unassigned
+101
+(94.39%)</t>
         </is>
       </c>
     </row>

--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22188" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" state="visible" r:id="rId1"/>
@@ -657,7 +657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,6 +675,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1286,8 +1289,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="67.2222222222222" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1302,44 +1305,44 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>https://opensource-demo.orangehrmlive.com/</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="10" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="10" t="inlineStr">
         <is>
           <t>admin123</t>
         </is>
@@ -1372,144 +1375,144 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="8" t="inlineStr">
         <is>
           <t>menu_admin</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>menu_pim</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>PIM</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>menu_leave</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="8" t="inlineStr">
         <is>
           <t>menu_time</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="8" t="inlineStr">
         <is>
           <t>menu_recruitment</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Recruitment</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>menu_my_nfo</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>My Info</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>menu_performance</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>menu_dashboard</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Dashboard</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>menu_directory</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Directory</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>menu_maintenance</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Maintenance</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>menu_claim</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Claim</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>menu_buzz</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>Buzz</t>
         </is>
@@ -1529,7 +1532,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1569,27 +1572,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Enabled</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Bredlin</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Ricky</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>Password123</t>
         </is>
@@ -1608,8 +1611,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1678,7 +1681,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1730,35 +1733,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>Bredlin Jose</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>Suresh Raina</t>
+        </is>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>bredlin@example.com</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="n">
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>raina@example.com</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n">
         <v>9876543210</v>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="8" t="inlineStr">
         <is>
           <t>no data</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="8" t="inlineStr">
         <is>
           <t>no notes</t>
         </is>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="8" t="inlineStr">
         <is>
           <t>test_data\\sample_file\\pdf-sample.pdf</t>
         </is>
@@ -1778,7 +1781,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1845,7 +1848,7 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>Bredlin Jose</t>
+          <t>Virat Kohli</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
@@ -1894,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2057,11 +2060,155 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>Unassigned
 101
 (94.39%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+100
+(94.34%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+197
+(98.50%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+218
+(98.64%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+8
+(88.89%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+91
+(93.81%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+23
+(95.83%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+17
+(94.44%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+23
+(95.83%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+22
+(95.65%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+98
+(94.23%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+98
+(94.23%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+11
+(91.67%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+16
+(94.12%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+35
+(94.59%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+37
+(94.87%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Unassigned
+40
+(95.24%)</t>
         </is>
       </c>
     </row>

--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1897,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2204,11 +2204,20 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>Unassigned
 40
 (95.24%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Unassigned
+93
+(93.94%)</t>
         </is>
       </c>
     </row>

--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1897,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2213,11 +2213,20 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>Unassigned
 93
 (93.94%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Unassigned
+102
+(94.44%)</t>
         </is>
       </c>
     </row>

--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1897,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2222,11 +2222,20 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>Unassigned
 102
 (94.44%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Unassigned
+79
+(92.94%)</t>
         </is>
       </c>
     </row>

--- a/test_data/Data.xlsx
+++ b/test_data/Data.xlsx
@@ -1897,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2231,11 +2231,29 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>Unassigned
 79
 (92.94%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+116
+(95.08%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Unassigned
+127
+(94.78%)</t>
         </is>
       </c>
     </row>
